--- a/results/mp/deberta/corona/confidence/84/stop-words-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="1489">
   <si>
     <t>anchor score</t>
   </si>
@@ -577,718 +577,718 @@
     <t>11</t>
   </si>
   <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>communities</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>almost</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>rather</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>homemade</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>pure</t>
+  </si>
+  <si>
+    <t>resource</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>communities</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>almost</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>follow</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>meet</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>win</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>homemade</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>natural</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>pure</t>
-  </si>
-  <si>
-    <t>resource</t>
   </si>
   <si>
     <t>safety</t>
@@ -4849,7 +4849,7 @@
         <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -5028,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5078,7 +5078,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5128,7 +5128,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5178,7 +5178,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5278,7 +5278,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5328,7 +5328,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5478,7 +5478,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K14">
         <v>0.9152542372881356</v>
@@ -5528,7 +5528,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K15">
         <v>0.9090909090909091</v>
@@ -5628,7 +5628,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K17">
         <v>0.9</v>
@@ -5678,7 +5678,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K18">
         <v>0.9</v>
@@ -5728,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K19">
         <v>0.8947368421052632</v>
@@ -5778,7 +5778,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K20">
         <v>0.8888888888888888</v>
@@ -5828,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K21">
         <v>0.8888888888888888</v>
@@ -5928,7 +5928,7 @@
         <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K23">
         <v>0.875</v>
@@ -5978,7 +5978,7 @@
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K24">
         <v>0.875</v>
@@ -6178,7 +6178,7 @@
         <v>9</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K28">
         <v>0.8571428571428571</v>
@@ -6228,7 +6228,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K29">
         <v>0.8571428571428571</v>
@@ -6278,7 +6278,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K30">
         <v>0.8461538461538461</v>
@@ -6328,7 +6328,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K31">
         <v>0.8333333333333334</v>
@@ -6378,7 +6378,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K32">
         <v>0.8333333333333334</v>
@@ -6428,7 +6428,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K33">
         <v>0.8333333333333334</v>
@@ -6478,7 +6478,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K34">
         <v>0.8333333333333334</v>
@@ -6578,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K36">
         <v>0.8181818181818182</v>
@@ -6878,7 +6878,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K42">
         <v>0.7952755905511811</v>
@@ -6928,7 +6928,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K43">
         <v>0.7692307692307693</v>
@@ -6978,7 +6978,7 @@
         <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K44">
         <v>0.7692307692307693</v>
@@ -7028,7 +7028,7 @@
         <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K45">
         <v>0.75</v>
@@ -7078,7 +7078,7 @@
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K46">
         <v>0.75</v>
@@ -7128,7 +7128,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K47">
         <v>0.75</v>
@@ -7178,7 +7178,7 @@
         <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K48">
         <v>0.7368421052631579</v>
@@ -7228,7 +7228,7 @@
         <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K49">
         <v>0.7272727272727273</v>
@@ -7278,7 +7278,7 @@
         <v>9</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K50">
         <v>0.7232704402515723</v>
@@ -7328,7 +7328,7 @@
         <v>6</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K51">
         <v>0.7142857142857143</v>
@@ -7378,7 +7378,7 @@
         <v>15</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K52">
         <v>0.7142857142857143</v>
@@ -7428,7 +7428,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K53">
         <v>0.7142857142857143</v>
@@ -7578,7 +7578,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K56">
         <v>0.7</v>
@@ -7628,7 +7628,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K57">
         <v>0.6984126984126984</v>
@@ -7678,7 +7678,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K58">
         <v>0.6785714285714286</v>
@@ -7778,7 +7778,7 @@
         <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K60">
         <v>0.6666666666666666</v>
@@ -7878,7 +7878,7 @@
         <v>3</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K62">
         <v>0.6666666666666666</v>
@@ -7928,7 +7928,7 @@
         <v>12</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K63">
         <v>0.6666666666666666</v>
@@ -7978,7 +7978,7 @@
         <v>19</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K64">
         <v>0.6666666666666666</v>
@@ -8028,7 +8028,7 @@
         <v>10</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K65">
         <v>0.6666666666666666</v>
@@ -8128,7 +8128,7 @@
         <v>15</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K67">
         <v>0.6666666666666666</v>
@@ -8178,7 +8178,7 @@
         <v>15</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K68">
         <v>0.6666666666666666</v>
@@ -8228,7 +8228,7 @@
         <v>19</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K69">
         <v>0.6666666666666666</v>
@@ -8278,7 +8278,7 @@
         <v>60</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K70">
         <v>0.6666666666666666</v>
@@ -8328,7 +8328,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K71">
         <v>0.6428571428571429</v>
@@ -8428,7 +8428,7 @@
         <v>4</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K73">
         <v>0.6363636363636364</v>
@@ -8528,7 +8528,7 @@
         <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K75">
         <v>0.6363636363636364</v>
@@ -8628,7 +8628,7 @@
         <v>21</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K77">
         <v>0.6363636363636364</v>
@@ -8678,28 +8678,28 @@
         <v>9</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="K78">
-        <v>0.6336206896551724</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L78">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="M78">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="N78">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O78">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -8728,28 +8728,28 @@
         <v>9</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>142</v>
+        <v>402</v>
       </c>
       <c r="K79">
-        <v>0.6304347826086957</v>
+        <v>0.625</v>
       </c>
       <c r="L79">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="M79">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -8778,16 +8778,16 @@
         <v>9</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K80">
         <v>0.625</v>
       </c>
       <c r="L80">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -8799,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -8828,16 +8828,16 @@
         <v>5</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K81">
         <v>0.625</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -8878,7 +8878,7 @@
         <v>10</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K82">
         <v>0.625</v>
@@ -8928,28 +8928,28 @@
         <v>5</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K83">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L83">
+        <v>8</v>
+      </c>
+      <c r="M83">
+        <v>8</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
         <v>5</v>
-      </c>
-      <c r="M83">
-        <v>5</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -8978,16 +8978,16 @@
         <v>5</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K84">
-        <v>0.6153846153846154</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L84">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="M84">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -9078,7 +9078,7 @@
         <v>5</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K86">
         <v>0.6056338028169014</v>
@@ -9278,7 +9278,7 @@
         <v>15</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K90">
         <v>0.6</v>
@@ -9478,7 +9478,7 @@
         <v>10</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K94">
         <v>0.5833333333333334</v>
@@ -9528,7 +9528,7 @@
         <v>5</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K95">
         <v>0.5833333333333334</v>
@@ -9628,7 +9628,7 @@
         <v>5</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K97">
         <v>0.5714285714285714</v>
@@ -9678,7 +9678,7 @@
         <v>5</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K98">
         <v>0.5714285714285714</v>
@@ -9728,7 +9728,7 @@
         <v>16</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K99">
         <v>0.5714285714285714</v>
@@ -9778,7 +9778,7 @@
         <v>16</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K100">
         <v>0.5652173913043478</v>
@@ -9828,7 +9828,7 @@
         <v>22</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K101">
         <v>0.5625</v>
@@ -9878,7 +9878,7 @@
         <v>33</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K102">
         <v>0.5555555555555556</v>
@@ -9928,7 +9928,7 @@
         <v>18</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K103">
         <v>0.5555555555555556</v>
@@ -9978,7 +9978,7 @@
         <v>6</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K104">
         <v>0.5555555555555556</v>
@@ -10078,7 +10078,7 @@
         <v>6</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K106">
         <v>0.5531914893617021</v>
@@ -10178,7 +10178,7 @@
         <v>6</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K108">
         <v>0.5454545454545454</v>
@@ -10228,7 +10228,7 @@
         <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K109">
         <v>0.5384615384615384</v>
@@ -10278,28 +10278,28 @@
         <v>6</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>194</v>
+        <v>423</v>
       </c>
       <c r="K110">
-        <v>0.5349544072948328</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L110">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="M110">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="N110">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -10331,13 +10331,13 @@
         <v>424</v>
       </c>
       <c r="K111">
-        <v>0.5333333333333333</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L111">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="M111">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>7</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -10428,7 +10428,7 @@
         <v>12</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K113">
         <v>0.5</v>
@@ -10528,7 +10528,7 @@
         <v>6</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K115">
         <v>0.5</v>
@@ -11428,7 +11428,7 @@
         <v>16</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K133">
         <v>0.4666666666666667</v>
@@ -11478,7 +11478,7 @@
         <v>8</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K134">
         <v>0.4659090909090909</v>
@@ -11628,7 +11628,7 @@
         <v>17</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K137">
         <v>0.4448275862068966</v>
@@ -11978,7 +11978,7 @@
         <v>9</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K144">
         <v>0.4347826086956522</v>
@@ -12728,7 +12728,7 @@
         <v>10</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K159">
         <v>0.4090909090909091</v>
@@ -12828,7 +12828,7 @@
         <v>20</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K161">
         <v>0.4083769633507853</v>
@@ -12878,7 +12878,7 @@
         <v>10</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K162">
         <v>0.4074074074074074</v>
@@ -13378,7 +13378,7 @@
         <v>33</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K172">
         <v>0.3902439024390244</v>
@@ -13857,25 +13857,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.07608695652173914</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C182">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>474</v>
@@ -13963,16 +13963,16 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>13</v>
@@ -14013,16 +14013,16 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
         <v>13</v>
@@ -14063,13 +14063,13 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E186">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F186">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
@@ -14113,16 +14113,16 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>13</v>
@@ -14157,25 +14157,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>480</v>
@@ -14207,25 +14207,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.06707317073170732</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C189">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>101</v>
@@ -14260,22 +14260,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E190">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F190">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>481</v>
@@ -14313,16 +14313,16 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
         <v>14</v>
@@ -14360,22 +14360,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>483</v>
@@ -14413,13 +14413,13 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -14478,7 +14478,7 @@
         <v>14</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K194">
         <v>0.358974358974359</v>
@@ -14507,28 +14507,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K195">
         <v>0.3571428571428572</v>
@@ -14557,7 +14557,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -14575,10 +14575,10 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K196">
         <v>0.3571428571428572</v>
@@ -14613,16 +14613,16 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>15</v>
@@ -14663,16 +14663,16 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>15</v>
@@ -14713,13 +14713,13 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F199">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
@@ -14763,13 +14763,13 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F200">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
@@ -14813,13 +14813,13 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E201">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F201">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
@@ -14863,13 +14863,13 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E202">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F202">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
@@ -14907,25 +14907,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>489</v>
@@ -14957,28 +14957,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F204">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K204">
         <v>0.3478260869565217</v>
@@ -15060,22 +15060,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E206">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F206">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>491</v>
@@ -15113,16 +15113,16 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
         <v>16</v>
@@ -15163,13 +15163,13 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E208">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F208">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
@@ -15207,25 +15207,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>494</v>
@@ -15257,25 +15257,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E210">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F210">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>495</v>
@@ -15313,16 +15313,16 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
         <v>17</v>
@@ -15360,22 +15360,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>497</v>
@@ -15413,16 +15413,16 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <v>17</v>
@@ -15457,25 +15457,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F214">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>499</v>
@@ -15507,25 +15507,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>500</v>
@@ -15563,13 +15563,13 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E216">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F216">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
@@ -15613,13 +15613,13 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E217">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F217">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
@@ -15663,13 +15663,13 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E218">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F218">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
@@ -15713,16 +15713,16 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
         <v>18</v>
@@ -15757,25 +15757,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D220">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>504</v>
@@ -15807,25 +15807,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>505</v>
@@ -15857,13 +15857,13 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.05194805194805195</v>
+        <v>0.05</v>
       </c>
       <c r="C222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>78</v>
@@ -15907,25 +15907,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>506</v>
@@ -15957,25 +15957,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>507</v>
@@ -16007,25 +16007,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E225">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F225">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>508</v>
@@ -16063,16 +16063,16 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
         <v>21</v>
@@ -16107,25 +16107,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F227">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>510</v>
@@ -16157,25 +16157,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>511</v>
@@ -16207,25 +16207,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E229">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F229">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>512</v>
@@ -16263,13 +16263,13 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E230">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F230">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
@@ -16357,25 +16357,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E232">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F232">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>116</v>
@@ -16407,25 +16407,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E233">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F233">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>515</v>
@@ -16513,16 +16513,16 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>23</v>
@@ -16557,25 +16557,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>518</v>
@@ -16607,7 +16607,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.04166666666666666</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -16625,7 +16625,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>519</v>
@@ -16657,25 +16657,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>520</v>
@@ -16713,16 +16713,16 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
         <v>25</v>
@@ -16757,25 +16757,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="E240">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F240">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>522</v>
@@ -16807,25 +16807,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E241">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F241">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>523</v>
@@ -16857,25 +16857,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>524</v>
@@ -16907,25 +16907,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E243">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F243">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>525</v>
@@ -16963,16 +16963,16 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
         <v>27</v>
@@ -17013,16 +17013,16 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
         <v>27</v>
@@ -17063,13 +17063,13 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E246">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F246">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
@@ -17128,7 +17128,7 @@
         <v>27</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K247">
         <v>0.3043478260869565</v>
@@ -17157,28 +17157,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.03571428571428571</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K248">
         <v>0.3</v>
@@ -17207,25 +17207,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.03571428571428571</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>527</v>
@@ -17257,25 +17257,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E250">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F250">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>528</v>
@@ -17307,25 +17307,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>529</v>
@@ -17357,25 +17357,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E252">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>530</v>
@@ -17407,25 +17407,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>531</v>
@@ -17463,16 +17463,16 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
         <v>32</v>
@@ -17513,13 +17513,13 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F255">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
@@ -17557,25 +17557,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0303030303030303</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D256">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="E256">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F256">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>534</v>
@@ -17607,25 +17607,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E257">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F257">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>155</v>
@@ -17657,25 +17657,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.03012048192771084</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="E258">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F258">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>535</v>
@@ -17707,25 +17707,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.02941176470588235</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F259">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>184</v>
@@ -17757,28 +17757,28 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.02857142857142857</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E260">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K260">
         <v>0.2916666666666667</v>
@@ -17807,25 +17807,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>162</v>
@@ -17857,13 +17857,13 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.02684563758389262</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -17875,7 +17875,7 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>536</v>
@@ -17907,25 +17907,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E263">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F263">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>537</v>
@@ -17957,25 +17957,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>538</v>
@@ -18007,25 +18007,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E265">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F265">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>539</v>
@@ -18057,25 +18057,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E266">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>540</v>
@@ -18107,25 +18107,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E267">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F267">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>541</v>
@@ -18157,25 +18157,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>542</v>
@@ -18260,22 +18260,22 @@
         <v>0.02380952380952381</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E270">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="F270">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>544</v>
@@ -18313,16 +18313,16 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
         <v>41</v>
@@ -18363,13 +18363,13 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E272">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F272">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
@@ -18407,25 +18407,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>547</v>
@@ -18457,25 +18457,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E274">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F274">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>548</v>
@@ -18507,25 +18507,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="E275">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F275">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>549</v>
@@ -18557,25 +18557,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E276">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F276">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>550</v>
@@ -18607,25 +18607,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E277">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F277">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>551</v>
@@ -18657,25 +18657,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E278">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F278">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>552</v>
@@ -18707,25 +18707,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E279">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F279">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>553</v>
@@ -18757,25 +18757,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E280">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F280">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>554</v>
@@ -18807,25 +18807,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E281">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F281">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>555</v>
@@ -18857,25 +18857,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E282">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="F282">
-        <v>0.02000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>556</v>
@@ -18907,25 +18907,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E283">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F283">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>557</v>
@@ -18957,25 +18957,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E284">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F284">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>558</v>
@@ -19007,25 +19007,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E285">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F285">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>559</v>
@@ -19057,28 +19057,28 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E286">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F286">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K286">
         <v>0.28</v>
@@ -19107,25 +19107,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E287">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F287">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>560</v>
@@ -19157,25 +19157,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E288">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F288">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>561</v>
@@ -19207,25 +19207,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E289">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F289">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>562</v>
@@ -19263,13 +19263,13 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E290">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F290">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
@@ -19307,25 +19307,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.01818181818181818</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E291">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F291">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H291">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>564</v>
@@ -19357,25 +19357,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.01818181818181818</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E292">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F292">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>565</v>
@@ -19407,25 +19407,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F293">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>136</v>
@@ -19463,13 +19463,13 @@
         <v>1</v>
       </c>
       <c r="D294">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E294">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F294">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
@@ -19507,25 +19507,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E295">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F295">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>567</v>
@@ -19557,25 +19557,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E296">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F296">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>568</v>
@@ -19607,25 +19607,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.01587301587301587</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D297">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="E297">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F297">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>62</v>
+        <v>325</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>569</v>
@@ -19657,25 +19657,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.01538461538461539</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E298">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F298">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>570</v>
@@ -19707,25 +19707,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.01515151515151515</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C299">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E299">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F299">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>325</v>
+        <v>68</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>571</v>
@@ -19757,25 +19757,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.01470588235294118</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E300">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F300">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>572</v>
@@ -19807,28 +19807,28 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.01449275362318841</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E301">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F301">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K301">
         <v>0.2638888888888889</v>
@@ -19857,7 +19857,7 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.01351351351351351</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -19875,7 +19875,7 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>573</v>
@@ -19907,25 +19907,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.01282051282051282</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E303">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F303">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>574</v>
@@ -19957,25 +19957,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.01282051282051282</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E304">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F304">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>143</v>
@@ -20007,25 +20007,25 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.01204819277108434</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E305">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F305">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>575</v>
@@ -20057,25 +20057,25 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.01136363636363636</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E306">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F306">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>576</v>
@@ -20107,25 +20107,25 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.01111111111111111</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E307">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F307">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>577</v>
@@ -20157,25 +20157,25 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.0108695652173913</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
       <c r="D308">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E308">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F308">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>578</v>
@@ -20213,13 +20213,13 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E309">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F309">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
@@ -20257,13 +20257,13 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.01030927835051546</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E310">
         <v>0.9399999999999999</v>
@@ -20275,7 +20275,7 @@
         <v>1</v>
       </c>
       <c r="H310">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>580</v>
@@ -20307,25 +20307,25 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.01030927835051546</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E311">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F311">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>581</v>
@@ -20357,25 +20357,25 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.009803921568627451</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E312">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F312">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>582</v>
@@ -20407,25 +20407,25 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.009708737864077669</v>
+        <v>0.009584664536741214</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D313">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E313">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F313">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>102</v>
+        <v>310</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>583</v>
@@ -20457,25 +20457,25 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>0.009708737864077669</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E314">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F314">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>584</v>
@@ -20507,25 +20507,25 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>0.009584664536741214</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C315">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D315">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E315">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F315">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G315" t="b">
         <v>1</v>
       </c>
       <c r="H315">
-        <v>310</v>
+        <v>111</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>585</v>
@@ -20557,25 +20557,25 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>0.009523809523809525</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E316">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F316">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>586</v>
@@ -20607,13 +20607,13 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0.008928571428571428</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E317">
         <v>0.95</v>
@@ -20625,7 +20625,7 @@
         <v>1</v>
       </c>
       <c r="H317">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>587</v>
@@ -20657,25 +20657,25 @@
         <v>323</v>
       </c>
       <c r="B318">
-        <v>0.008695652173913044</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D318">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E318">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F318">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G318" t="b">
         <v>1</v>
       </c>
       <c r="H318">
-        <v>114</v>
+        <v>360</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>588</v>
@@ -20707,25 +20707,25 @@
         <v>324</v>
       </c>
       <c r="B319">
-        <v>0.008620689655172414</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E319">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F319">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G319" t="b">
         <v>1</v>
       </c>
       <c r="H319">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>589</v>
@@ -20757,25 +20757,25 @@
         <v>325</v>
       </c>
       <c r="B320">
-        <v>0.008264462809917356</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D320">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E320">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F320">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G320" t="b">
         <v>1</v>
       </c>
       <c r="H320">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>590</v>
@@ -20807,25 +20807,25 @@
         <v>326</v>
       </c>
       <c r="B321">
-        <v>0.007936507936507936</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E321">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F321">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>591</v>
@@ -20857,25 +20857,25 @@
         <v>327</v>
       </c>
       <c r="B322">
-        <v>0.007633587786259542</v>
+        <v>0.007399577167019027</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D322">
         <v>29</v>
       </c>
       <c r="E322">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="F322">
-        <v>0.03000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="G322" t="b">
         <v>1</v>
       </c>
       <c r="H322">
-        <v>130</v>
+        <v>939</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>592</v>
@@ -20907,25 +20907,25 @@
         <v>328</v>
       </c>
       <c r="B323">
-        <v>0.007633587786259542</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E323">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F323">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>593</v>
@@ -20957,25 +20957,25 @@
         <v>329</v>
       </c>
       <c r="B324">
-        <v>0.007399577167019027</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C324">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D324">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E324">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="F324">
-        <v>0.24</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G324" t="b">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>939</v>
+        <v>139</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>594</v>
@@ -21007,25 +21007,25 @@
         <v>330</v>
       </c>
       <c r="B325">
-        <v>0.007352941176470588</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D325">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E325">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F325">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G325" t="b">
         <v>1</v>
       </c>
       <c r="H325">
-        <v>135</v>
+        <v>592</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>595</v>
@@ -21057,25 +21057,25 @@
         <v>331</v>
       </c>
       <c r="B326">
-        <v>0.007142857142857143</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="C326">
         <v>1</v>
       </c>
       <c r="D326">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E326">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F326">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G326" t="b">
         <v>1</v>
       </c>
       <c r="H326">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>596</v>
@@ -21107,25 +21107,25 @@
         <v>332</v>
       </c>
       <c r="B327">
-        <v>0.006711409395973154</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C327">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D327">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E327">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F327">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G327" t="b">
         <v>1</v>
       </c>
       <c r="H327">
-        <v>592</v>
+        <v>163</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>597</v>
@@ -21157,25 +21157,25 @@
         <v>333</v>
       </c>
       <c r="B328">
-        <v>0.006369426751592357</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
       <c r="D328">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E328">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F328">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G328" t="b">
         <v>1</v>
       </c>
       <c r="H328">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>598</v>
@@ -21207,25 +21207,25 @@
         <v>334</v>
       </c>
       <c r="B329">
-        <v>0.006097560975609756</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C329">
         <v>1</v>
       </c>
       <c r="D329">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E329">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F329">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H329">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>599</v>
@@ -21257,25 +21257,25 @@
         <v>335</v>
       </c>
       <c r="B330">
-        <v>0.006097560975609756</v>
+        <v>0.005703422053231939</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D330">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E330">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F330">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G330" t="b">
         <v>1</v>
       </c>
       <c r="H330">
-        <v>163</v>
+        <v>523</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>600</v>
@@ -21307,7 +21307,7 @@
         <v>336</v>
       </c>
       <c r="B331">
-        <v>0.006024096385542169</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -21325,7 +21325,7 @@
         <v>0</v>
       </c>
       <c r="H331">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="J331" s="1" t="s">
         <v>601</v>
@@ -21357,25 +21357,25 @@
         <v>337</v>
       </c>
       <c r="B332">
-        <v>0.005703422053231939</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="C332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D332">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E332">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F332">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G332" t="b">
         <v>1</v>
       </c>
       <c r="H332">
-        <v>523</v>
+        <v>190</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>602</v>
@@ -21407,25 +21407,25 @@
         <v>338</v>
       </c>
       <c r="B333">
-        <v>0.005291005291005291</v>
+        <v>0.005165289256198347</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D333">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F333">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H333">
-        <v>188</v>
+        <v>1926</v>
       </c>
       <c r="J333" s="1" t="s">
         <v>603</v>
@@ -21457,13 +21457,13 @@
         <v>339</v>
       </c>
       <c r="B334">
-        <v>0.005235602094240838</v>
+        <v>0.0049813200498132</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D334">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="E334">
         <v>0.96</v>
@@ -21475,10 +21475,10 @@
         <v>1</v>
       </c>
       <c r="H334">
-        <v>190</v>
+        <v>799</v>
       </c>
       <c r="J334" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K334">
         <v>0.2394366197183098</v>
@@ -21507,25 +21507,25 @@
         <v>340</v>
       </c>
       <c r="B335">
-        <v>0.005165289256198347</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="C335">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D335">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="E335">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F335">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G335" t="b">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>1926</v>
+        <v>208</v>
       </c>
       <c r="J335" s="1" t="s">
         <v>604</v>
@@ -21557,25 +21557,25 @@
         <v>341</v>
       </c>
       <c r="B336">
-        <v>0.0049813200498132</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="C336">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D336">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E336">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F336">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G336" t="b">
         <v>1</v>
       </c>
       <c r="H336">
-        <v>799</v>
+        <v>214</v>
       </c>
       <c r="J336" s="1" t="s">
         <v>605</v>
@@ -21607,25 +21607,25 @@
         <v>342</v>
       </c>
       <c r="B337">
-        <v>0.004784688995215311</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="C337">
         <v>1</v>
       </c>
       <c r="D337">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="E337">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F337">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G337" t="b">
         <v>1</v>
       </c>
       <c r="H337">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>606</v>
@@ -21657,25 +21657,25 @@
         <v>343</v>
       </c>
       <c r="B338">
-        <v>0.004651162790697674</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C338">
         <v>1</v>
       </c>
       <c r="D338">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E338">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F338">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H338">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>607</v>
@@ -21707,25 +21707,25 @@
         <v>344</v>
       </c>
       <c r="B339">
-        <v>0.004405286343612335</v>
+        <v>0.003884180790960452</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D339">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="E339">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F339">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G339" t="b">
         <v>1</v>
       </c>
       <c r="H339">
-        <v>226</v>
+        <v>2821</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>608</v>
@@ -21757,28 +21757,28 @@
         <v>345</v>
       </c>
       <c r="B340">
-        <v>0.003968253968253968</v>
+        <v>0.003717472118959108</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D340">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E340">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F340">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H340">
-        <v>251</v>
+        <v>804</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K340">
         <v>0.2333333333333333</v>
@@ -21807,25 +21807,25 @@
         <v>346</v>
       </c>
       <c r="B341">
-        <v>0.003884180790960452</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="C341">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D341">
+        <v>41</v>
+      </c>
+      <c r="E341">
+        <v>0.98</v>
+      </c>
+      <c r="F341">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341">
         <v>286</v>
-      </c>
-      <c r="E341">
-        <v>0.96</v>
-      </c>
-      <c r="F341">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341">
-        <v>2821</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>609</v>
@@ -21857,25 +21857,25 @@
         <v>347</v>
       </c>
       <c r="B342">
-        <v>0.003717472118959108</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
         <v>3</v>
       </c>
-      <c r="D342">
-        <v>63</v>
-      </c>
       <c r="E342">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F342">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G342" t="b">
         <v>1</v>
       </c>
       <c r="H342">
-        <v>804</v>
+        <v>290</v>
       </c>
       <c r="J342" s="1" t="s">
         <v>610</v>
@@ -21907,25 +21907,25 @@
         <v>348</v>
       </c>
       <c r="B343">
-        <v>0.003484320557491289</v>
+        <v>0.002724795640326975</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D343">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E343">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F343">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G343" t="b">
         <v>1</v>
       </c>
       <c r="H343">
-        <v>286</v>
+        <v>1098</v>
       </c>
       <c r="J343" s="1" t="s">
         <v>611</v>
@@ -21957,25 +21957,25 @@
         <v>349</v>
       </c>
       <c r="B344">
-        <v>0.003436426116838488</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D344">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="E344">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F344">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G344" t="b">
         <v>1</v>
       </c>
       <c r="H344">
-        <v>290</v>
+        <v>786</v>
       </c>
       <c r="J344" s="1" t="s">
         <v>7</v>
@@ -22007,25 +22007,25 @@
         <v>350</v>
       </c>
       <c r="B345">
-        <v>0.002724795640326975</v>
+        <v>0.001915708812260536</v>
       </c>
       <c r="C345">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D345">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E345">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F345">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G345" t="b">
         <v>1</v>
       </c>
       <c r="H345">
-        <v>1098</v>
+        <v>521</v>
       </c>
       <c r="J345" s="1" t="s">
         <v>612</v>
@@ -22057,13 +22057,13 @@
         <v>351</v>
       </c>
       <c r="B346">
-        <v>0.002538071065989848</v>
+        <v>0.0009845749917952085</v>
       </c>
       <c r="C346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D346">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="E346">
         <v>0.98</v>
@@ -22075,7 +22075,7 @@
         <v>1</v>
       </c>
       <c r="H346">
-        <v>786</v>
+        <v>3044</v>
       </c>
       <c r="J346" s="1" t="s">
         <v>613</v>
@@ -22103,30 +22103,6 @@
       </c>
     </row>
     <row r="347" spans="1:17">
-      <c r="A347" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B347">
-        <v>0.001915708812260536</v>
-      </c>
-      <c r="C347">
-        <v>1</v>
-      </c>
-      <c r="D347">
-        <v>24</v>
-      </c>
-      <c r="E347">
-        <v>0.96</v>
-      </c>
-      <c r="F347">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G347" t="b">
-        <v>1</v>
-      </c>
-      <c r="H347">
-        <v>521</v>
-      </c>
       <c r="J347" s="1" t="s">
         <v>614</v>
       </c>
@@ -22153,30 +22129,6 @@
       </c>
     </row>
     <row r="348" spans="1:17">
-      <c r="A348" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B348">
-        <v>0.0009845749917952085</v>
-      </c>
-      <c r="C348">
-        <v>3</v>
-      </c>
-      <c r="D348">
-        <v>157</v>
-      </c>
-      <c r="E348">
-        <v>0.98</v>
-      </c>
-      <c r="F348">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G348" t="b">
-        <v>1</v>
-      </c>
-      <c r="H348">
-        <v>3044</v>
-      </c>
       <c r="J348" s="1" t="s">
         <v>615</v>
       </c>
@@ -22750,7 +22702,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K370">
         <v>0.2173913043478261</v>
@@ -22932,7 +22884,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K377">
         <v>0.2130750605326877</v>
@@ -22958,7 +22910,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K378">
         <v>0.2121212121212121</v>
@@ -23010,7 +22962,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K380">
         <v>0.2105263157894737</v>
@@ -23036,7 +22988,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K381">
         <v>0.2105263157894737</v>
@@ -23738,7 +23690,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K408">
         <v>0.1964285714285714</v>
@@ -23790,7 +23742,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K410">
         <v>0.1923076923076923</v>
@@ -23920,7 +23872,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K415">
         <v>0.1904761904761905</v>
@@ -23946,7 +23898,7 @@
     </row>
     <row r="416" spans="10:17">
       <c r="J416" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K416">
         <v>0.1896551724137931</v>
@@ -24180,7 +24132,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K425">
         <v>0.1842105263157895</v>
@@ -24206,7 +24158,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K426">
         <v>0.1818181818181818</v>
@@ -24648,7 +24600,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K443">
         <v>0.1785714285714286</v>
@@ -24674,7 +24626,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K444">
         <v>0.1785714285714286</v>
@@ -24726,7 +24678,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K446">
         <v>0.1772151898734177</v>
@@ -24882,7 +24834,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K452">
         <v>0.1764705882352941</v>
@@ -25090,7 +25042,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K460">
         <v>0.1702127659574468</v>
@@ -27482,7 +27434,7 @@
     </row>
     <row r="552" spans="10:17">
       <c r="J552" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K552">
         <v>0.1538461538461539</v>
@@ -27898,7 +27850,7 @@
     </row>
     <row r="568" spans="10:17">
       <c r="J568" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K568">
         <v>0.15</v>
@@ -27950,7 +27902,7 @@
     </row>
     <row r="570" spans="10:17">
       <c r="J570" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K570">
         <v>0.1461538461538462</v>
@@ -27976,7 +27928,7 @@
     </row>
     <row r="571" spans="10:17">
       <c r="J571" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K571">
         <v>0.1455696202531646</v>
@@ -28002,7 +27954,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K572">
         <v>0.1451612903225807</v>
@@ -28054,7 +28006,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K574">
         <v>0.1440677966101695</v>
@@ -29848,7 +29800,7 @@
     </row>
     <row r="643" spans="10:17">
       <c r="J643" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K643">
         <v>0.1419753086419753</v>
@@ -29900,7 +29852,7 @@
     </row>
     <row r="645" spans="10:17">
       <c r="J645" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K645">
         <v>0.141025641025641</v>
@@ -29952,7 +29904,7 @@
     </row>
     <row r="647" spans="10:17">
       <c r="J647" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K647">
         <v>0.1368421052631579</v>
@@ -29978,7 +29930,7 @@
     </row>
     <row r="648" spans="10:17">
       <c r="J648" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K648">
         <v>0.1363636363636364</v>
@@ -30108,7 +30060,7 @@
     </row>
     <row r="653" spans="10:17">
       <c r="J653" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K653">
         <v>0.1353383458646616</v>
@@ -30134,7 +30086,7 @@
     </row>
     <row r="654" spans="10:17">
       <c r="J654" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K654">
         <v>0.1351351351351351</v>
@@ -30160,7 +30112,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K655">
         <v>0.1351351351351351</v>
@@ -30394,7 +30346,7 @@
     </row>
     <row r="664" spans="10:17">
       <c r="J664" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K664">
         <v>0.1333333333333333</v>
@@ -30576,7 +30528,7 @@
     </row>
     <row r="671" spans="10:17">
       <c r="J671" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K671">
         <v>0.1333333333333333</v>
@@ -30758,7 +30710,7 @@
     </row>
     <row r="678" spans="10:17">
       <c r="J678" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K678">
         <v>0.1290322580645161</v>
@@ -30836,7 +30788,7 @@
     </row>
     <row r="681" spans="10:17">
       <c r="J681" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K681">
         <v>0.1283292978208233</v>
@@ -32500,7 +32452,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K745">
         <v>0.1228070175438596</v>
@@ -32552,7 +32504,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K747">
         <v>0.1226993865030675</v>
@@ -32682,7 +32634,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K752">
         <v>0.1188340807174888</v>
@@ -32708,7 +32660,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K753">
         <v>0.1186440677966102</v>
@@ -32734,7 +32686,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K754">
         <v>0.1176470588235294</v>
@@ -33176,7 +33128,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K771">
         <v>0.1153846153846154</v>
@@ -33306,7 +33258,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K776">
         <v>0.1141304347826087</v>
@@ -33332,7 +33284,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K777">
         <v>0.1136363636363636</v>
@@ -33436,7 +33388,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K781">
         <v>0.1121495327102804</v>
@@ -34034,7 +33986,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K804">
         <v>0.1111111111111111</v>
@@ -34970,7 +34922,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K840">
         <v>0.1095890410958904</v>
@@ -34996,7 +34948,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K841">
         <v>0.1092530657748049</v>
@@ -35334,7 +35286,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K854">
         <v>0.1040462427745665</v>
@@ -35464,7 +35416,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K859">
         <v>0.1020408163265306</v>
@@ -35802,7 +35754,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K872">
         <v>0.1</v>
@@ -36322,7 +36274,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K892">
         <v>0.0975609756097561</v>
@@ -36400,7 +36352,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K895">
         <v>0.0970464135021097</v>
@@ -36426,7 +36378,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K896">
         <v>0.09677419354838709</v>
@@ -36582,7 +36534,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K902">
         <v>0.09523809523809523</v>
@@ -37050,7 +37002,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K920">
         <v>0.09090909090909091</v>
@@ -37154,7 +37106,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K924">
         <v>0.09090909090909091</v>
@@ -37804,7 +37756,7 @@
     </row>
     <row r="949" spans="10:17">
       <c r="J949" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K949">
         <v>0.08882428940568475</v>
@@ -37882,7 +37834,7 @@
     </row>
     <row r="952" spans="10:17">
       <c r="J952" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K952">
         <v>0.08771929824561403</v>
@@ -38064,7 +38016,7 @@
     </row>
     <row r="959" spans="10:17">
       <c r="J959" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K959">
         <v>0.08695652173913043</v>
@@ -38194,7 +38146,7 @@
     </row>
     <row r="964" spans="10:17">
       <c r="J964" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K964">
         <v>0.08571428571428572</v>
@@ -38272,7 +38224,7 @@
     </row>
     <row r="967" spans="10:17">
       <c r="J967" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K967">
         <v>0.08359133126934984</v>
@@ -38324,7 +38276,7 @@
     </row>
     <row r="969" spans="10:17">
       <c r="J969" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K969">
         <v>0.08333333333333333</v>
@@ -38792,7 +38744,7 @@
     </row>
     <row r="987" spans="10:17">
       <c r="J987" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K987">
         <v>0.08333333333333333</v>
@@ -39000,7 +38952,7 @@
     </row>
     <row r="995" spans="10:17">
       <c r="J995" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K995">
         <v>0.08333333333333333</v>
@@ -40066,7 +40018,7 @@
     </row>
     <row r="1036" spans="10:17">
       <c r="J1036" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K1036">
         <v>0.0759493670886076</v>
@@ -40092,7 +40044,7 @@
     </row>
     <row r="1037" spans="10:17">
       <c r="J1037" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K1037">
         <v>0.07575757575757576</v>
@@ -40222,7 +40174,7 @@
     </row>
     <row r="1042" spans="10:17">
       <c r="J1042" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K1042">
         <v>0.07291666666666667</v>
@@ -40274,7 +40226,7 @@
     </row>
     <row r="1044" spans="10:17">
       <c r="J1044" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K1044">
         <v>0.0726950354609929</v>
@@ -40326,7 +40278,7 @@
     </row>
     <row r="1046" spans="10:17">
       <c r="J1046" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K1046">
         <v>0.07228915662650602</v>
@@ -40638,7 +40590,7 @@
     </row>
     <row r="1058" spans="10:17">
       <c r="J1058" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K1058">
         <v>0.07142857142857142</v>
@@ -40768,7 +40720,7 @@
     </row>
     <row r="1063" spans="10:17">
       <c r="J1063" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K1063">
         <v>0.07142857142857142</v>
@@ -41132,7 +41084,7 @@
     </row>
     <row r="1077" spans="10:17">
       <c r="J1077" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K1077">
         <v>0.06944444444444445</v>
@@ -41236,7 +41188,7 @@
     </row>
     <row r="1081" spans="10:17">
       <c r="J1081" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K1081">
         <v>0.06818181818181818</v>
@@ -41262,7 +41214,7 @@
     </row>
     <row r="1082" spans="10:17">
       <c r="J1082" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K1082">
         <v>0.06818181818181818</v>
@@ -41288,7 +41240,7 @@
     </row>
     <row r="1083" spans="10:17">
       <c r="J1083" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K1083">
         <v>0.06818181818181818</v>
@@ -41314,7 +41266,7 @@
     </row>
     <row r="1084" spans="10:17">
       <c r="J1084" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K1084">
         <v>0.06818181818181818</v>
@@ -41470,7 +41422,7 @@
     </row>
     <row r="1090" spans="10:17">
       <c r="J1090" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K1090">
         <v>0.06666666666666667</v>
@@ -41522,7 +41474,7 @@
     </row>
     <row r="1092" spans="10:17">
       <c r="J1092" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K1092">
         <v>0.06666666666666667</v>
@@ -41834,7 +41786,7 @@
     </row>
     <row r="1104" spans="10:17">
       <c r="J1104" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K1104">
         <v>0.06521739130434782</v>
@@ -42250,7 +42202,7 @@
     </row>
     <row r="1120" spans="10:17">
       <c r="J1120" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K1120">
         <v>0.0625</v>
@@ -42536,7 +42488,7 @@
     </row>
     <row r="1131" spans="10:17">
       <c r="J1131" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K1131">
         <v>0.06153846153846154</v>
@@ -42562,7 +42514,7 @@
     </row>
     <row r="1132" spans="10:17">
       <c r="J1132" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K1132">
         <v>0.06153846153846154</v>
@@ -42614,7 +42566,7 @@
     </row>
     <row r="1134" spans="10:17">
       <c r="J1134" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K1134">
         <v>0.06122448979591837</v>
@@ -42796,7 +42748,7 @@
     </row>
     <row r="1141" spans="10:17">
       <c r="J1141" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K1141">
         <v>0.05882352941176471</v>
@@ -43290,7 +43242,7 @@
     </row>
     <row r="1160" spans="10:17">
       <c r="J1160" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K1160">
         <v>0.05555555555555555</v>
@@ -43472,7 +43424,7 @@
     </row>
     <row r="1167" spans="10:17">
       <c r="J1167" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K1167">
         <v>0.05454545454545454</v>
@@ -43524,7 +43476,7 @@
     </row>
     <row r="1169" spans="10:17">
       <c r="J1169" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K1169">
         <v>0.05309734513274336</v>
@@ -43550,7 +43502,7 @@
     </row>
     <row r="1170" spans="10:17">
       <c r="J1170" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K1170">
         <v>0.05263157894736842</v>
@@ -43914,7 +43866,7 @@
     </row>
     <row r="1184" spans="10:17">
       <c r="J1184" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K1184">
         <v>0.05181347150259067</v>
@@ -44330,7 +44282,7 @@
     </row>
     <row r="1200" spans="10:17">
       <c r="J1200" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K1200">
         <v>0.04938271604938271</v>
@@ -44408,7 +44360,7 @@
     </row>
     <row r="1203" spans="10:17">
       <c r="J1203" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K1203">
         <v>0.04815509693558474</v>
@@ -44460,7 +44412,7 @@
     </row>
     <row r="1205" spans="10:17">
       <c r="J1205" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K1205">
         <v>0.04761904761904762</v>
@@ -44642,7 +44594,7 @@
     </row>
     <row r="1212" spans="10:17">
       <c r="J1212" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K1212">
         <v>0.04615384615384616</v>
@@ -44876,7 +44828,7 @@
     </row>
     <row r="1221" spans="10:17">
       <c r="J1221" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K1221">
         <v>0.04395604395604396</v>
@@ -45006,7 +44958,7 @@
     </row>
     <row r="1226" spans="10:17">
       <c r="J1226" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K1226">
         <v>0.04227941176470588</v>
@@ -45084,7 +45036,7 @@
     </row>
     <row r="1229" spans="10:17">
       <c r="J1229" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K1229">
         <v>0.04117647058823529</v>
@@ -45214,7 +45166,7 @@
     </row>
     <row r="1234" spans="10:17">
       <c r="J1234" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K1234">
         <v>0.04</v>
@@ -45838,7 +45790,7 @@
     </row>
     <row r="1258" spans="10:17">
       <c r="J1258" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K1258">
         <v>0.03571428571428571</v>
@@ -45916,7 +45868,7 @@
     </row>
     <row r="1261" spans="10:17">
       <c r="J1261" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K1261">
         <v>0.03571428571428571</v>
@@ -46150,7 +46102,7 @@
     </row>
     <row r="1270" spans="10:17">
       <c r="J1270" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K1270">
         <v>0.03225806451612903</v>
@@ -46228,7 +46180,7 @@
     </row>
     <row r="1273" spans="10:17">
       <c r="J1273" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K1273">
         <v>0.03191489361702127</v>
@@ -46384,7 +46336,7 @@
     </row>
     <row r="1279" spans="10:17">
       <c r="J1279" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K1279">
         <v>0.02941176470588235</v>
@@ -46436,7 +46388,7 @@
     </row>
     <row r="1281" spans="10:17">
       <c r="J1281" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K1281">
         <v>0.02857142857142857</v>
@@ -46540,7 +46492,7 @@
     </row>
     <row r="1285" spans="10:17">
       <c r="J1285" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K1285">
         <v>0.02857142857142857</v>
@@ -47060,7 +47012,7 @@
     </row>
     <row r="1305" spans="10:17">
       <c r="J1305" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K1305">
         <v>0.02564102564102564</v>
@@ -47216,7 +47168,7 @@
     </row>
     <row r="1311" spans="10:17">
       <c r="J1311" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K1311">
         <v>0.02380952380952381</v>
@@ -47320,7 +47272,7 @@
     </row>
     <row r="1315" spans="10:17">
       <c r="J1315" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1315">
         <v>0.02289281997918835</v>
@@ -47346,7 +47298,7 @@
     </row>
     <row r="1316" spans="10:17">
       <c r="J1316" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K1316">
         <v>0.02272727272727273</v>
@@ -47658,7 +47610,7 @@
     </row>
     <row r="1328" spans="10:17">
       <c r="J1328" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K1328">
         <v>0.01574803149606299</v>
@@ -47710,7 +47662,7 @@
     </row>
     <row r="1330" spans="10:17">
       <c r="J1330" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K1330">
         <v>0.01538461538461539</v>
@@ -48152,7 +48104,7 @@
     </row>
     <row r="1347" spans="10:17">
       <c r="J1347" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K1347">
         <v>0.00684931506849315</v>
